--- a/Equipe210.xlsx
+++ b/Equipe210.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1129" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B5C270-8F2F-4994-8C80-2AFA62B5A395}"/>
+  <xr:revisionPtr revIDLastSave="1282" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E7026B-7C0E-4DA8-B4AC-8E741C8096C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="Documents" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
   <si>
     <t>Fonct.</t>
   </si>
@@ -59,6 +60,9 @@
     <t>Note pondérée</t>
   </si>
   <si>
+    <t>Documents</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -105,6 +109,10 @@
   </si>
   <si>
     <t xml:space="preserve">il faut minimiser la logique dans les components et les pages en les mettant dans des services </t>
+  </si>
+  <si>
+    <t>game.one-vs-one devraient pas s'ocuuper directement de la communication avec le serveur. Faudrait mettre cette responsabilité dans un service controlleur
+waiting-room.page aussi</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -117,6 +125,10 @@
     <t xml:space="preserve">Groupez vos services dans des folders comem ce qui est fait dans les components </t>
   </si>
   <si>
+    <t xml:space="preserve">timer/classic.-mode.gateway??
+OK pour le reste </t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
   </si>
   <si>
     <t>Bon travail</t>
+  </si>
+  <si>
+    <t>DrawingService a trop de responsabilit.é</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -160,13 +175,17 @@
 La classe minimise les longues chaînes d'appels (ex : foo.bar.baz.foo)</t>
   </si>
   <si>
+    <t>Ok</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
     <t>La classe initialise tous ses attributs de la même façon. Soit à la définition, soit dans le constructeur.</t>
   </si>
   <si>
-    <t>Ok</t>
+    <t>text-box-component incorrect
+drawing service incorrect</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -183,6 +202,10 @@
     <t>getDifference trop complexe</t>
   </si>
   <si>
+    <t>getDifference trop complexe
+findDifference trop complexe</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -191,6 +214,9 @@
   </si>
   <si>
     <t>Bon travail!</t>
+  </si>
+  <si>
+    <t>storeInfo trop complexe</t>
   </si>
   <si>
     <t>4. Gestion des ressources et erreurs</t>
@@ -215,6 +241,9 @@
 Vous avez des return await</t>
   </si>
   <si>
+    <t>Vous avez des return await redondant</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -233,6 +262,9 @@
     <t>bestSoloTimes , best1vs1Times??, timer constantes ? constantes  ne respectent pas le bon format et ne sont pas groupés ensemble dans un fichier separé</t>
   </si>
   <si>
+    <t xml:space="preserve">Good job pour le  groupement </t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -248,6 +280,9 @@
     <t xml:space="preserve">sec = 0? dans timer.component, faut bien nommer vos constantes selon le contexte </t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>6. Expressions booléennes</t>
   </si>
   <si>
@@ -255,9 +290,6 @@
   </si>
   <si>
     <t>L'expression booléenne n'es pas comparée à true ou false. (Exemple d'erreur: x === true)</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>6.2 Logique négative</t>
@@ -301,6 +333,10 @@
     <t>Le commentaire est pertinent. (Pas de code mort commenté)</t>
   </si>
   <si>
+    <t>PlayAreaComponent HTML
+TextBox HTML</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -332,6 +368,14 @@
 L'utilisation limitée de eslint:disable est tolérée dans les fichiers de test (.spec.ts). (Exemple : nombres magiques)</t>
   </si>
   <si>
+    <t xml:space="preserve">/* eslint-disable no-console */
+eslint-disable-next-line max-params
+eslint-disable-next-line @typescript-eslint/no-magic-numbers
+eslint-disable-next-line no-restricted-imports
+eslint-disable-next-line import/no-unresolved
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -339,6 +383,9 @@
   </si>
   <si>
     <t>Components très compelexe: CreateImageComponent</t>
+  </si>
+  <si>
+    <t>getDifference</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -355,6 +402,9 @@
     <t>Le logiciel a une performance acceptable.</t>
   </si>
   <si>
+    <t>Votre système de détection de différence est trop lent</t>
+  </si>
+  <si>
     <t>8. Gestion de versions</t>
   </si>
   <si>
@@ -388,6 +438,9 @@
   </si>
   <si>
     <t>Auto-approuve des MR. MR des branches qui ne passent pas le pipeline. Noms des Mr non explicatives. Pas de MR de features.</t>
+  </si>
+  <si>
+    <t>Vos MR ne passent pas le pipeline</t>
   </si>
   <si>
     <t>8.5 Fichiers</t>
@@ -449,6 +502,9 @@
 Pas de gestions de plusieurs parties en même temps.</t>
   </si>
   <si>
+    <t xml:space="preserve">L'equipe pense qu'il sont pénalise deux fois. </t>
+  </si>
+  <si>
     <t>Note finale pour le sprint</t>
   </si>
   <si>
@@ -461,30 +517,56 @@
     <t>Erreur de build</t>
   </si>
   <si>
-    <t>Vous avez des tests qui fail server side. Vos tests client ne s'exécutent pas!</t>
+    <t>Vous avez des tests qui fail server side et client side.</t>
   </si>
   <si>
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>Votre shift ne fonctionne pas dans les 4 cadrans
+Difficile de rajouter une image dans votre vue de création
+Bon travail!</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
+    <t>Les lobbys ne fonctionnent pas de facon parallelle
+Manque de couverture dans le serveur 
+OK  pour le reste</t>
+  </si>
+  <si>
     <t>2.3 Mode Classique en un contre un</t>
   </si>
   <si>
+    <t xml:space="preserve">Manque de coverage server side
+Client bloqué lors d'un play avec abandon
+Meme fiche marche pas </t>
+  </si>
+  <si>
     <t>2.4 Vue de jeu en un contre un et Section des messages</t>
   </si>
   <si>
     <t>2.5 Vue de Configuration - suppression de jeu</t>
   </si>
   <si>
+    <t>Probleme de supprimer une partie, peut se rendre dans un etat non supprimable
+On devrait pouvoir delete d'une partie en cours, mais on peut pas
+Supprimer une partie brise la file d'attente</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
   </si>
   <si>
     <t>2.7 Mode Triche</t>
   </si>
   <si>
+    <t>Vos tests contiennent de nombreux warnings.</t>
+  </si>
+  <si>
     <t>Erreur de build  / déploiement erroné</t>
   </si>
   <si>
@@ -516,13 +598,114 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Document d'Architecture</t>
+  </si>
+  <si>
+    <t>Protocole de communication</t>
+  </si>
+  <si>
+    <t>Historique des révisions</t>
+  </si>
+  <si>
+    <t>1 Introduction /1</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t>2 Vue des cas d'utilisation /5</t>
+  </si>
+  <si>
+    <t>2 Communication client-serveur /7</t>
+  </si>
+  <si>
+    <t>"Application" n'est pas un acteur valide : toute votre système est l'Application.
+Page 5 :  plusieurs liens entre 2 CUs sans type de relation (include, extend ou une généralisation). Beaucoup de vos CUs sont des détails d'implémentation à retirer. Ex : "Enlever du temps au compete à rebours", "Incrémenter le compteur", etc.
+Page 6 : mêmes commentaires que page 5. Les 3 indices devraient avoir des relations "extends" ou généralisation avec "Demander un indice" et non "include. 
+Page 7 : les relations "include" avec "Sélectionner vue de configuration" devraient être des "extends". Pourquoi le CU de mise à jour à la fin de la partie est relié à la réinitialisation des constantes ?
+Page 8 : sens des relations "extend" doit être inversé. L'assignation des valeurs fictives n'est pas lié à la sélection de la vue de sélection. Le dernier CU est un détail d'implémentation à retirer.
+Page 9 : pas de type de lien pour l'abandon ni pour "sélectionner retour au menu principal". Les relations "include" devraient être des "extend".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Manque de justification de l'utilisation du protocole HTTP. Par défaut n'est pas une justification correcte.
+- Manque de description des fonctionnalités implémentés avec WebSocket. 
+- Le paragraphe ne mentionne pas le protocole HTTP ni le protocole WebSocket.
+- Section non réussi, à refaire. </t>
+  </si>
+  <si>
+    <t>3 Vue des processus /6</t>
+  </si>
+  <si>
+    <t>3 Description des paquets /12</t>
+  </si>
+  <si>
+    <t>Attention : vos messages sont mal nommées : vous devez avec un message et non un texte qui explique l'action à prendre sous la forme de phrase complète.
+Page 10 : il manque un 2e Utilisateur pour la partie multijoueur. La séquence de jumelage doit être dans un [alt] sinon vous forcez le jumelage, même en solo. Le message "identifie la différence" devrait être "Fait une tentative" pour rester cohérent avec le reste de la séquence. Manque une notation [alt] après la tentative : votre séquence indique que l'utilisateur est bloqué pendant 1 seconde, même si une différence a été identifiée. Manque un [loop] pour indiquer que la partie continue jusqu'à une condition d'arrêt : votre diagramme force l'abandon après 1 différence trouvée. Manque la gestion de l'abandon en mode multijoueur.
+Page 11 : manque une notation [alt] ou [opt] pour les 3 types d'indices. Manque une notation [alt] pour la gestion de la minuterie en mode Temps Limité.
+Page 12 : Système est utilisé comme différent de "Serveur" à la page 11. Ceci laisse croire que toute cette séquence ne communique pas avec le serveur/base de données. Manque une notation [alt] ou [opt] sinon vous forcez la modification des constantes à chaque fois qu'on veut faire toute autre action sur cette page.
+Page 13 : le premier message devrait être "accéder à la vue de sélection" : votre utilisateur n'affiche rien. La séquence se lit de haut en bas : il n'y a aucun lien entre le 1er message et "Soumettre le temps en fin de partie".
+Page 14 : manque une notation [alt] au début, sinon le "choix" n'est pas vraiment un choix s'il arrive 100% du temps. Manque une notation [alt] ou [opt] pour les différents choix durant la reprise, sinon vous forcez le changement de vitesse avant de mettre la reprise en pause à chaque fois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Requêtes HTTP sans code de retour.
+- Utiliser des interface pour representer le corps des requêtes.
+- Attention: Ne pas mélanger entre un morceau de URL et une string dans le contenu des messages Socket.
+- Vos contenus sont parfois des interfaces, parfois des valeurs. 
+- Il faut faire la distinction entre les sockets pour d'un seul client et les sockets broadcast au room. 
+</t>
+  </si>
+  <si>
+    <t>4 Vue logique /6</t>
+  </si>
+  <si>
+    <t>Page 15 : manque la communication par WS dans la description de "Client". PAGES : votre projet est en TS donc les fichiers sont du TypeScript et non JavaScript. SERVICES : la description du paquetage est formulée différement des autres paqutages.
+Page 15 : "Serveur" : "logique métier" est une traduction Google Translate de business logic. GATEWAYS : ça devrait gérer la communication WS et non HTTP et quel est exactement le protocole de sécurité utilisé ?
+Page 16 : Components aurait dû être divisé en plusieurs sous-paquetages. La quantité de flèches rend le diagramme illisible. 
+Page 17 : évitez des paquetages et classes flottants. Ce n'est pas clair quelle est la différence entre "game-manager" dans Controller et dans Service : avez-vous vraiment 2 classes avec le même nom ? Aucune présentation de la communication avec la base de données.
+Difficile de voir les fonctionnalités du Sprint 3 dans votre section. Selon votre présentation, rien ne communique avec une BD externe et ceci vous est imposé pour les meilleurs temps du moins. Difficile de vor les components/services utilisés du côté client pour les nouvelles fonctionnalitées également.</t>
+  </si>
+  <si>
+    <t>5 Vue de déploiement /2</t>
+  </si>
+  <si>
+    <t>Notation UML invalide.
+Manque la notion de serveur statique qui sert le code source du site web (communication par HTTP).
+Manque la communication par WS avec le serveur dynamique.
+API RESTful NEST n'est pas un logiciel, mais un style d'architecture et un cadriciel.
+MongoDB n'est pas un type de communication.</t>
+  </si>
+  <si>
+    <t>Forme /1</t>
+  </si>
+  <si>
+    <t>Section 2 : notation UML "extend" et "include" à revoir. Plusieurs liens "flottants" qui ne sont pas bien liés à des CUs.
+Section 3 : notation UML [alt] et [opt] à revoir.  
+Section 4 : aucune cohérence de notation des noms de vos classes. Ex : page 16 présente des noms avec espace (Home button), sans espace (settings-button), avec des majuscules (Game-card), avec des minuscules (slider).</t>
+  </si>
+  <si>
+    <t>- Présence de fautes d'orthographes
+- Tableau non formaté</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>FORME</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -646,8 +829,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,8 +1001,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1459,6 +1693,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1469,7 +1772,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1926,9 +2229,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2106,6 +2406,159 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2130,105 +2583,9 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,6 +2618,9 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2651,10 +3011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA667-0374-4556-B71F-558CE1E91347}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2667,7 +3027,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30.75">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>0</v>
@@ -2687,22 +3047,25 @@
       <c r="G3" s="129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="108">
         <f>(Fonctionnalités!E15)</f>
-        <v>0.66699999999999993</v>
+        <v>0.71199999999999986</v>
       </c>
       <c r="C4" s="108">
         <f>'Assurance Qualité'!C59</f>
-        <v>0.754</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D4" s="108">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.70179999999999998</v>
+        <v>0.7327999999999999</v>
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="110">
@@ -2710,24 +3073,25 @@
       </c>
       <c r="G4" s="111">
         <f>D4*F4</f>
-        <v>14.036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14.655999999999999</v>
+      </c>
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.6715000000000001</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2735,12 +3099,16 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>13.027999999999999</v>
+      </c>
+      <c r="H5" s="116">
+        <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
+        <v>3.4125000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
@@ -2762,10 +3130,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="121">
+        <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
@@ -2780,6 +3152,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,8 +3164,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2811,36 +3184,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
+      <c r="A2" s="270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
+      <c r="A4" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2860,62 +3233,62 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="238" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="225" t="s">
+      <c r="A6" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="240" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242" t="s">
+      <c r="B6" s="275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="243"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="222" t="s">
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="223"/>
-      <c r="K6" s="224"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="272" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="273"/>
+      <c r="K6" s="274"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="239"/>
-      <c r="B7" s="226"/>
+      <c r="A7" s="264"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2925,26 +3298,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="235" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="228" t="s">
+      <c r="A8" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="229"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="239"/>
       <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="229"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="229"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="239"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2953,12 +3328,12 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="45.75">
+    <row r="9" spans="1:17" ht="167.25">
       <c r="A9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="100">
         <v>0.8</v>
@@ -2967,13 +3342,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.7</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -2986,12 +3365,12 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="30.75">
+    <row r="10" spans="1:17" ht="60.75">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="100">
         <v>0.8</v>
@@ -3000,13 +3379,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="102">
+        <v>0.75</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="103" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105">
         <v>2</v>
@@ -3020,10 +3403,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="231"/>
+      <c r="A11" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="241"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>6.4</v>
@@ -3035,7 +3418,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3059,24 +3442,24 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="235" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="229"/>
+      <c r="A12" s="245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="245"/>
+      <c r="C12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="239"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="229"/>
+      <c r="F12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="239"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="229"/>
+      <c r="I12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="239"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3085,12 +3468,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="30.75">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3099,14 +3482,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3118,24 +3505,30 @@
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="83"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="83">
+        <v>0.5</v>
+      </c>
       <c r="D14" s="84">
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3147,10 +3540,10 @@
     </row>
     <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3159,14 +3552,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3178,10 +3575,10 @@
     </row>
     <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3190,14 +3587,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="86">
+        <v>1</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3207,12 +3608,12 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="30.75">
+    <row r="17" spans="1:17" ht="60.75">
       <c r="A17" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -3221,14 +3622,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3239,13 +3644,13 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="231"/>
+      <c r="A18" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="241"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="48">
         <f>SUM(D13:D17)</f>
@@ -3254,7 +3659,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3278,34 +3683,34 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="227" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="229"/>
+      <c r="A19" s="277" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="277"/>
+      <c r="C19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="239"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="229"/>
+      <c r="F19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="239"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="229"/>
+      <c r="I19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="239"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="45.75">
+    <row r="20" spans="1:17" ht="60.75">
       <c r="A20" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="83">
         <v>0.8</v>
@@ -3314,13 +3719,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>49</v>
+      </c>
+      <c r="F20" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>50</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3331,10 +3740,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3343,13 +3752,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3359,10 +3772,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="232" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="233"/>
+      <c r="A22" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="260"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>5.4</v>
@@ -3374,7 +3787,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3394,34 +3807,34 @@
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="214" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="229"/>
+      <c r="A23" s="213" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="213"/>
+      <c r="C23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="239"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="229"/>
+      <c r="F23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="239"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="229"/>
+      <c r="I23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="239"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3430,13 +3843,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>1</v>
@@ -3447,10 +3864,10 @@
     </row>
     <row r="25" spans="1:17" ht="121.5">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C25" s="83">
         <v>0.5</v>
@@ -3459,13 +3876,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>2</v>
@@ -3476,10 +3897,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3488,13 +3909,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3504,10 +3929,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="233"/>
+      <c r="A27" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="260"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3</v>
@@ -3519,7 +3944,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3539,36 +3964,38 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="227"/>
-      <c r="C28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="229"/>
+      <c r="A28" s="277" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="277"/>
+      <c r="C28" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="239"/>
       <c r="E28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="229"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="229"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="239"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="60.75">
       <c r="A29" s="31" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C29" s="79">
         <v>0.1</v>
@@ -3577,14 +4004,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>67</v>
+      </c>
+      <c r="F29" s="89">
+        <v>1</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>68</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3596,10 +4027,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3608,7 +4039,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
@@ -3625,10 +4058,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C31" s="83">
         <v>0.7</v>
@@ -3637,14 +4070,18 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="86"/>
+        <v>73</v>
+      </c>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H31" s="96"/>
+      <c r="H31" s="96" t="s">
+        <v>74</v>
+      </c>
       <c r="I31" s="76"/>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
@@ -3655,10 +4092,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="231"/>
+      <c r="A32" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="241"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>3.6</v>
@@ -3670,7 +4107,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3690,24 +4127,24 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="235" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="235"/>
-      <c r="C33" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="229"/>
+      <c r="A33" s="245" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="245"/>
+      <c r="C33" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="239"/>
       <c r="E33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="229"/>
+      <c r="G33" s="239"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="46"/>
@@ -3716,10 +4153,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3728,9 +4165,11 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="89"/>
+        <v>74</v>
+      </c>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
@@ -3745,10 +4184,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3757,9 +4196,11 @@
         <v>2</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="86"/>
+        <v>74</v>
+      </c>
+      <c r="F35" s="89">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
@@ -3774,10 +4215,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3786,7 +4227,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="89">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
@@ -3801,10 +4244,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -3813,9 +4256,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>84</v>
+      </c>
+      <c r="F37" s="89">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
@@ -3829,10 +4274,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="231"/>
+      <c r="A38" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="241"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>10</v>
@@ -3844,7 +4289,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
@@ -3865,35 +4310,37 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="229"/>
+      <c r="C39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="239"/>
       <c r="E39" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="229"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="229"/>
+        <v>86</v>
+      </c>
+      <c r="F39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="239"/>
+      <c r="H39" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="239"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -3902,14 +4349,18 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F40" s="86">
+        <v>1</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3919,12 +4370,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="45.75">
       <c r="A41" s="23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -3933,14 +4384,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F41" s="86">
+        <v>0</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>91</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -3950,12 +4405,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="30.75">
       <c r="A42" s="23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -3964,14 +4419,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>94</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>94</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
@@ -3982,10 +4441,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -3994,14 +4453,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>74</v>
+      </c>
+      <c r="F43" s="86">
+        <v>1</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -4013,10 +4476,10 @@
     </row>
     <row r="44" spans="1:13" ht="30.75">
       <c r="A44" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C44" s="83">
         <v>0.5</v>
@@ -4025,14 +4488,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>99</v>
+      </c>
+      <c r="F44" s="86">
+        <v>1</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4042,12 +4509,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="45.75">
+    <row r="45" spans="1:13" ht="198">
       <c r="A45" s="23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4056,14 +4523,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F45" s="86">
+        <v>0</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>102</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4075,10 +4546,10 @@
     </row>
     <row r="46" spans="1:13" ht="30.75">
       <c r="A46" s="23" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C46" s="83">
         <v>0.5</v>
@@ -4087,14 +4558,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>105</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4106,10 +4581,10 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4118,14 +4593,18 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>74</v>
+      </c>
+      <c r="F47" s="86">
+        <v>1</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>74</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4135,12 +4614,12 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="45.75">
       <c r="A48" s="13" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4149,14 +4628,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F48" s="86">
+        <v>0</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H48" s="88"/>
+      <c r="H48" s="88" t="s">
+        <v>111</v>
+      </c>
       <c r="I48" s="76"/>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
@@ -4167,10 +4650,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="231"/>
+      <c r="A49" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="241"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>32</v>
@@ -4182,7 +4665,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4206,36 +4689,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="235" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="235"/>
-      <c r="C50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="229"/>
+      <c r="A50" s="245" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="245"/>
+      <c r="C50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="239"/>
       <c r="E50" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="229"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="229"/>
+        <v>86</v>
+      </c>
+      <c r="F50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="239"/>
+      <c r="H50" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="239"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4244,13 +4729,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>42</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4261,10 +4750,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C52" s="83">
         <v>0</v>
@@ -4273,13 +4762,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>117</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4290,10 +4783,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4302,13 +4795,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>117</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>74</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4319,10 +4816,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C54" s="83">
         <v>0</v>
@@ -4331,13 +4828,17 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="86"/>
+        <v>122</v>
+      </c>
+      <c r="F54" s="86">
+        <v>0</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>123</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4348,10 +4849,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4360,13 +4861,17 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4376,10 +4881,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="231"/>
+      <c r="A56" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="241"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>4</v>
@@ -4391,7 +4896,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4411,30 +4916,30 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="258" t="s">
+      <c r="A57" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="259"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="260"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
+      <c r="H57" s="243"/>
+      <c r="I57" s="243"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="244"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="245" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="246"/>
+      <c r="A58" s="246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="247"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
-        <v>75.400000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D58" s="25">
         <f>D11+D18+D22+D27+D32+D38+D49+D56</f>
@@ -4443,14 +4948,14 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="213">
+      <c r="I58" s="212">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
         <v>0</v>
       </c>
@@ -4463,52 +4968,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="247" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="248"/>
-      <c r="C59" s="249">
+      <c r="A59" s="248" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="249"/>
+      <c r="C59" s="250">
         <f>C58/D58</f>
-        <v>0.754</v>
-      </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="252">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D59" s="251"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="253">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="253"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="255">
+        <v>0.6715000000000001</v>
+      </c>
+      <c r="G59" s="254"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="256">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="256"/>
-      <c r="K59" s="257"/>
+      <c r="J59" s="257"/>
+      <c r="K59" s="258"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -4525,25 +5027,28 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4560,10 +5065,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4577,18 +5082,18 @@
     <col min="8" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="261" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="A2" s="279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
@@ -4597,9 +5102,9 @@
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4608,44 +5113,44 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="265" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="267"/>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:8" ht="23.25">
+      <c r="A6" s="283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="285"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="130" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="132" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="133" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4662,12 +5167,12 @@
       </c>
       <c r="F8" s="134"/>
       <c r="G8" s="135" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="136" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4683,15 +5188,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="133" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4707,15 +5212,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="136" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -4731,15 +5236,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="133" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4755,15 +5260,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30.75">
       <c r="A13" s="133" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B13" s="134">
         <v>0.8</v>
@@ -4779,15 +5284,15 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="219" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="91.5">
+        <v>19</v>
+      </c>
+      <c r="G13" s="218" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="91.5">
       <c r="A14" s="136" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B14" s="137">
         <v>0.2</v>
@@ -4803,49 +5308,52 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="137"/>
-      <c r="G14" s="218" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="217" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
+        <v>143</v>
+      </c>
+      <c r="B15" s="286"/>
+      <c r="C15" s="286"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
       </c>
       <c r="E15" s="141">
         <f>(SUM(E8:E14)+E17+E18)/D15</f>
-        <v>0.66699999999999993</v>
+        <v>0.71199999999999986</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="142"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="143" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -4863,10 +5371,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B18" s="152">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="152"/>
       <c r="D18" s="153">
@@ -4874,560 +5382,584 @@
       </c>
       <c r="E18" s="152">
         <f>B18*D18</f>
-        <v>-7.5</v>
+        <v>-3</v>
       </c>
       <c r="F18" s="152"/>
       <c r="G18" s="154" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="269" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="271"/>
+      <c r="A19" s="287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="288"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="289"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B20" s="156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F20" s="156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45.75">
       <c r="A21" s="158" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B21" s="159">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C21" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="159">
         <v>26</v>
       </c>
       <c r="E21" s="159">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="162">
-        <v>0</v>
-      </c>
-      <c r="C22" s="162">
-        <v>0</v>
-      </c>
-      <c r="D22" s="162">
+        <v>19.5</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="219" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45.75">
+      <c r="A22" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="161">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="161">
         <v>14</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" ref="E22:E28" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>5.25</v>
+      </c>
+      <c r="F22" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="237" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45.75">
       <c r="A23" s="158" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B23" s="159">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+        <v>11.049999999999999</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="219" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="161" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="162">
-        <v>0</v>
-      </c>
-      <c r="C24" s="162">
-        <v>0</v>
-      </c>
-      <c r="D24" s="162">
+      <c r="A24" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="161">
+        <v>1</v>
+      </c>
+      <c r="C24" s="161">
+        <v>1</v>
+      </c>
+      <c r="D24" s="161">
         <v>12</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F24" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="1:7" ht="60.75">
       <c r="A25" s="158" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B25" s="159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="159">
         <v>8</v>
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="219" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="161" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="162">
-        <v>0</v>
-      </c>
-      <c r="C26" s="162">
-        <v>0</v>
-      </c>
-      <c r="D26" s="162">
+      <c r="A26" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="161">
+        <v>1</v>
+      </c>
+      <c r="C26" s="161">
+        <v>1</v>
+      </c>
+      <c r="D26" s="161">
         <v>6</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="161"/>
+      <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="215" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="215">
-        <v>0</v>
-      </c>
-      <c r="C27" s="215">
-        <v>0</v>
-      </c>
-      <c r="D27" s="215">
+      <c r="A27" s="214" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="214">
+        <v>1</v>
+      </c>
+      <c r="C27" s="214">
+        <v>1</v>
+      </c>
+      <c r="D27" s="214">
         <v>8</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="214" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="215" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="164" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165">
+      <c r="A28" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164">
         <f>SUM(D21:D27)</f>
         <v>100</v>
       </c>
-      <c r="E28" s="166">
-        <f>(SUM(E21:E26) + E30+E31+E32)/D28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
+      <c r="E28" s="165">
+        <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="167" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="169"/>
+      <c r="G29" s="170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="171" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="172">
+        <v>0.2</v>
+      </c>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173">
+        <v>-10</v>
+      </c>
+      <c r="E30" s="172">
+        <f>B30*D30</f>
+        <v>-2</v>
+      </c>
+      <c r="F30" s="172"/>
+      <c r="G30" s="174" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="175" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="176">
+        <v>0</v>
+      </c>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177">
+        <v>-15</v>
+      </c>
+      <c r="E31" s="176">
+        <f>B31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="176"/>
+      <c r="G31" s="178"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="180">
+        <v>0</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181">
+        <v>-5</v>
+      </c>
+      <c r="E32" s="180">
+        <f>B32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="180"/>
+      <c r="G32" s="182"/>
+    </row>
+    <row r="33" spans="1:7" ht="23.25">
+      <c r="A33" s="280" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="281"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="282"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B34" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="186" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="187">
+        <v>0</v>
+      </c>
+      <c r="C35" s="187">
+        <v>0</v>
+      </c>
+      <c r="D35" s="187">
+        <v>24</v>
+      </c>
+      <c r="E35" s="187">
+        <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="189" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="190">
+        <v>0</v>
+      </c>
+      <c r="C36" s="190">
+        <v>0</v>
+      </c>
+      <c r="D36" s="190">
+        <v>6</v>
+      </c>
+      <c r="E36" s="190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="190"/>
+      <c r="G36" s="191"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="186" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="187">
+        <v>0</v>
+      </c>
+      <c r="C37" s="187">
+        <v>0</v>
+      </c>
+      <c r="D37" s="187">
+        <v>6</v>
+      </c>
+      <c r="E37" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="187"/>
+      <c r="G37" s="188"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="190">
+        <v>0</v>
+      </c>
+      <c r="C38" s="190">
+        <v>0</v>
+      </c>
+      <c r="D38" s="190">
+        <v>12</v>
+      </c>
+      <c r="E38" s="190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="190"/>
+      <c r="G38" s="191"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="186" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="187">
+        <v>0</v>
+      </c>
+      <c r="C39" s="187">
+        <v>0</v>
+      </c>
+      <c r="D39" s="187">
+        <v>12</v>
+      </c>
+      <c r="E39" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="187"/>
+      <c r="G39" s="188"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="190">
+        <v>0</v>
+      </c>
+      <c r="C40" s="190">
+        <v>0</v>
+      </c>
+      <c r="D40" s="190">
         <v>14</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="170"/>
-      <c r="G29" s="171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="172" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="173">
-        <v>0</v>
-      </c>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174">
-        <v>-10</v>
-      </c>
-      <c r="E30" s="173">
-        <f>B30*D30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="173"/>
-      <c r="G30" s="175"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="176" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="177">
-        <v>0</v>
-      </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178">
-        <v>-15</v>
-      </c>
-      <c r="E31" s="177">
-        <f>B31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="177"/>
-      <c r="G31" s="179"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="181">
-        <v>0</v>
-      </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="182">
-        <v>-5</v>
-      </c>
-      <c r="E32" s="181">
-        <f>B32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="181"/>
-      <c r="G32" s="183"/>
-    </row>
-    <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="262" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="263"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="264"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="184" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="185" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="185" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="185" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="185" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="186" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="188">
-        <v>0</v>
-      </c>
-      <c r="C35" s="188">
-        <v>0</v>
-      </c>
-      <c r="D35" s="188">
-        <v>24</v>
-      </c>
-      <c r="E35" s="188">
-        <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="188"/>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="190" t="s">
+      <c r="E40" s="190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="190"/>
+      <c r="G40" s="191"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="187">
+        <v>0</v>
+      </c>
+      <c r="C41" s="187">
+        <v>0</v>
+      </c>
+      <c r="D41" s="187">
+        <v>6</v>
+      </c>
+      <c r="E41" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="187"/>
+      <c r="G41" s="188"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="216">
+        <v>0</v>
+      </c>
+      <c r="C42" s="216">
+        <v>0</v>
+      </c>
+      <c r="D42" s="216">
+        <v>20</v>
+      </c>
+      <c r="E42" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="191">
-        <v>0</v>
-      </c>
-      <c r="C36" s="191">
-        <v>0</v>
-      </c>
-      <c r="D36" s="191">
-        <v>6</v>
-      </c>
-      <c r="E36" s="191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="191"/>
-      <c r="G36" s="192"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="187" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="188">
-        <v>0</v>
-      </c>
-      <c r="C37" s="188">
-        <v>0</v>
-      </c>
-      <c r="D37" s="188">
-        <v>6</v>
-      </c>
-      <c r="E37" s="188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="188"/>
-      <c r="G37" s="189"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="190" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="191">
-        <v>0</v>
-      </c>
-      <c r="C38" s="191">
-        <v>0</v>
-      </c>
-      <c r="D38" s="191">
-        <v>12</v>
-      </c>
-      <c r="E38" s="191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="187" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="188">
-        <v>0</v>
-      </c>
-      <c r="C39" s="188">
-        <v>0</v>
-      </c>
-      <c r="D39" s="188">
-        <v>12</v>
-      </c>
-      <c r="E39" s="188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="188"/>
-      <c r="G39" s="189"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="190" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="191">
-        <v>0</v>
-      </c>
-      <c r="C40" s="191">
-        <v>0</v>
-      </c>
-      <c r="D40" s="191">
-        <v>14</v>
-      </c>
-      <c r="E40" s="191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="191"/>
-      <c r="G40" s="192"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="187" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="188">
-        <v>0</v>
-      </c>
-      <c r="C41" s="188">
-        <v>0</v>
-      </c>
-      <c r="D41" s="188">
-        <v>6</v>
-      </c>
-      <c r="E41" s="188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="217" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="217">
-        <v>0</v>
-      </c>
-      <c r="C42" s="217">
-        <v>0</v>
-      </c>
-      <c r="D42" s="217">
-        <v>20</v>
-      </c>
-      <c r="E42" s="188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="193" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194">
+      <c r="B43" s="193"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193">
         <f>SUM(D35:D42)</f>
         <v>100</v>
       </c>
-      <c r="E43" s="195">
-        <f>(SUM(E35:E41) +E45+E46+E47)/D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="195"/>
-      <c r="G43" s="196"/>
+      <c r="E43" s="194">
+        <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="194"/>
+      <c r="G43" s="195"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="197" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="198" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="198"/>
-      <c r="D44" s="198" t="s">
+      <c r="A44" s="196" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="199"/>
-      <c r="G44" s="200" t="s">
-        <v>15</v>
+      <c r="E44" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="198"/>
+      <c r="G44" s="199" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="202">
-        <v>0</v>
-      </c>
-      <c r="C45" s="202"/>
-      <c r="D45" s="203">
+      <c r="A45" s="200" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="201">
+        <v>0</v>
+      </c>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202">
         <v>-10</v>
       </c>
-      <c r="E45" s="202">
+      <c r="E45" s="201">
         <f>B45*D45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="202"/>
-      <c r="G45" s="204"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="203"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="205" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="206">
-        <v>0</v>
-      </c>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207">
+      <c r="A46" s="204" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="205">
+        <v>0</v>
+      </c>
+      <c r="C46" s="205"/>
+      <c r="D46" s="206">
         <v>-15</v>
       </c>
-      <c r="E46" s="206">
+      <c r="E46" s="205">
         <f>B46*D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="206"/>
-      <c r="G46" s="208"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="207"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="210">
-        <v>0</v>
-      </c>
-      <c r="C47" s="210"/>
-      <c r="D47" s="211">
+      <c r="A47" s="208" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="209">
+        <v>0</v>
+      </c>
+      <c r="C47" s="209"/>
+      <c r="D47" s="210">
         <v>-5</v>
       </c>
-      <c r="E47" s="210">
+      <c r="E47" s="209">
         <f>B47*D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="210"/>
-      <c r="G47" s="212"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5455,19 +5987,288 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBA27BD-72DD-4291-BCAE-11CEF7A88931}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="290" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="290"/>
+      <c r="E1" s="290" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="290"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="221" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="222"/>
+      <c r="E3" s="221" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="222"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="224">
+        <v>1</v>
+      </c>
+      <c r="C4" s="224"/>
+      <c r="E4" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="224">
+        <v>1</v>
+      </c>
+      <c r="G4" s="224"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="221"/>
+      <c r="B5" s="225" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="221" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="225" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="224">
+        <v>4</v>
+      </c>
+      <c r="C6" s="224"/>
+      <c r="E6" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="224">
+        <v>4</v>
+      </c>
+      <c r="G6" s="224"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="221"/>
+      <c r="B7" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="224">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="224"/>
+      <c r="E8" s="223" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="224">
+        <v>7</v>
+      </c>
+      <c r="G8" s="224"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="221"/>
+      <c r="B9" s="226" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="227"/>
+      <c r="F9" s="226" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="223" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="224">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="224"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="221"/>
+      <c r="B11" s="228" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="223" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="224">
+        <v>1</v>
+      </c>
+      <c r="C12" s="224"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="227"/>
+      <c r="B13" s="235" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="229" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="224">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="224"/>
+      <c r="E14" s="229" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="230">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="224"/>
+    </row>
+    <row r="15" spans="1:7" ht="72">
+      <c r="A15" s="221"/>
+      <c r="B15" s="236" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="221"/>
+      <c r="F15" s="226" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="232">
+        <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
+        <v>15</v>
+      </c>
+      <c r="C16" s="232">
+        <f>SUM(C4,C6,C8,C10,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="232">
+        <f>SUM(F4,F6,F8)</f>
+        <v>12</v>
+      </c>
+      <c r="G16" s="232">
+        <f>SUM(G4,G6,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="232">
+        <f t="shared" ref="B17" si="1">B14</f>
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="232">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="232">
+        <f>F14</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="232">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="233" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="234">
+        <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="234">
+        <f>C16/20*0.9+C17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="233" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="234">
+        <f>F16/20*0.9+F17*0.1</f>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G18" s="234">
+        <f>G16/20*0.9+G17*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5603,11 +6404,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Equipe210.xlsx
+++ b/Equipe210.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E7026B-7C0E-4DA8-B4AC-8E741C8096C1}"/>
+  <xr:revisionPtr revIDLastSave="1520" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD082AE-6B91-4970-8240-68ADC8E9172B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="225">
   <si>
     <t>Fonct.</t>
   </si>
@@ -115,6 +115,9 @@
 waiting-room.page aussi</t>
   </si>
   <si>
+    <t>Bon travail</t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -129,22 +132,29 @@
 OK pour le reste </t>
   </si>
   <si>
+    <t>server/classes doit contenir des folders pour chacune des classes</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
     <t>2. Classe</t>
   </si>
   <si>
+    <t>MOD</t>
+  </si>
+  <si>
     <t>2.1 Responsabilité</t>
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée.</t>
   </si>
   <si>
-    <t>Bon travail</t>
-  </si>
-  <si>
     <t>DrawingService a trop de responsabilit.é</t>
+  </si>
+  <si>
+    <t>GameService trop de responsabilité
+DrawingService trop de responsabilité</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -178,6 +188,9 @@
     <t>Ok</t>
   </si>
   <si>
+    <t>PlayAreaComponent trop de couplage</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
@@ -186,6 +199,11 @@
   <si>
     <t>text-box-component incorrect
 drawing service incorrect</t>
+  </si>
+  <si>
+    <t>DrawingService
+PlayAreaComponent
+DatabaseService</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -244,6 +262,11 @@
     <t>Vous avez des return await redondant</t>
   </si>
   <si>
+    <t>return await redondant
+createSameCanvas ne devrait pas être async
+convertToBase64 ne devrait pas être async</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -265,6 +288,9 @@
     <t xml:space="preserve">Good job pour le  groupement </t>
   </si>
   <si>
+    <t>Très bien</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -281,6 +307,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien nommé </t>
   </si>
   <si>
     <t>6. Expressions booléennes</t>
@@ -337,6 +366,9 @@
 TextBox HTML</t>
   </si>
   <si>
+    <t>text-box.component.html, ...</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -346,12 +378,18 @@
     <t>Enum pas dans folder de enums</t>
   </si>
   <si>
+    <t>Pas de enums dans les endroits ou il devrait avoir des enums. Ex : CounterService, playAction</t>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
   </si>
   <si>
+    <t>Quelques any pour payload</t>
+  </si>
+  <si>
     <t>7.5 Duplication</t>
   </si>
   <si>
@@ -359,6 +397,9 @@
   </si>
   <si>
     <t>Components non utilisé: HintButtonComponent</t>
+  </si>
+  <si>
+    <t>GameService</t>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -376,6 +417,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    // eslint-disable-next-line @angular-eslint/use-lifecycle-interface
+                    // eslint-disable-next-line no-bitwise
+/* eslint-disable no-restricted-imports */
+...
+/* eslint-disable @typescript-eslint/no-magic-numbers */
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -386,6 +435,10 @@
   </si>
   <si>
     <t>getDifference</t>
+  </si>
+  <si>
+    <t>displayMode, setWinCondition, getDifference (Sprint2), flashOneDifference1, flashOneDifference2,
+onHandleLobby, updateBestTimes ...</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -396,6 +449,9 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
+    <t xml:space="preserve">Vos messages d'erreurs doivent être dqsn des constantes bien nommées. </t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -405,6 +461,9 @@
     <t>Votre système de détection de différence est trop lent</t>
   </si>
   <si>
+    <t>Votre système de détection de différence est trop lent (sprint2)</t>
+  </si>
+  <si>
     <t>8. Gestion de versions</t>
   </si>
   <si>
@@ -421,6 +480,9 @@
   </si>
   <si>
     <t>Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre commit est sur la branche dev. Il faut que le tag soit sur la branche master. </t>
   </si>
   <si>
     <t>8.3 Branches mortes</t>
@@ -441,6 +503,9 @@
   </si>
   <si>
     <t>Vos MR ne passent pas le pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vos MR ne passent pas le pipeline. Vous avez des MR qui ne sont pas approuvés. Noms des MR est non représentatifs à la fonctionnalité. </t>
   </si>
   <si>
     <t>8.5 Fichiers</t>
@@ -502,9 +567,6 @@
 Pas de gestions de plusieurs parties en même temps.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'equipe pense qu'il sont pénalise deux fois. </t>
-  </si>
-  <si>
     <t>Note finale pour le sprint</t>
   </si>
   <si>
@@ -521,9 +583,6 @@
   </si>
   <si>
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
-  </si>
-  <si>
-    <t>MOD</t>
   </si>
   <si>
     <t>Votre shift ne fonctionne pas dans les 4 cadrans
@@ -554,8 +613,7 @@
   </si>
   <si>
     <t>Probleme de supprimer une partie, peut se rendre dans un etat non supprimable
-On devrait pouvoir delete d'une partie en cours, mais on peut pas
-Supprimer une partie brise la file d'attente</t>
+On devrait pouvoir delete d'une partie en cours, mais on peut pas</t>
   </si>
   <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
@@ -576,12 +634,23 @@
     <t>3.1 Mode Temps Limité</t>
   </si>
   <si>
+    <t>RACHAD</t>
+  </si>
+  <si>
+    <t>Bon travail
+GameService manque de coverage</t>
+  </si>
+  <si>
     <t>3.2 Remise des données à leur état initial</t>
   </si>
   <si>
     <t>3.3 Vue de Configuration - constantes de jeu</t>
   </si>
   <si>
+    <t>Bon travail
+Bon test!</t>
+  </si>
+  <si>
     <t>3.4 Indices de jeu</t>
   </si>
   <si>
@@ -597,6 +666,9 @@
     <t>3.8 Reprise vidéo de la partie</t>
   </si>
   <si>
+    <t>Bon test!</t>
+  </si>
+  <si>
     <t>Erreur de build / déploiement erroné</t>
   </si>
   <si>
@@ -616,6 +688,11 @@
   </si>
   <si>
     <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Faut introduire votre application. Votre introduction est trop courte par rapport au document. 
+- L'historique des révisions n'est pas à jour.
+</t>
   </si>
   <si>
     <t>2 Vue des cas d'utilisation /5</t>
@@ -632,10 +709,22 @@
 Page 9 : pas de type de lien pour l'abandon ni pour "sélectionner retour au menu principal". Les relations "include" devraient être des "extend".</t>
   </si>
   <si>
+    <t xml:space="preserve">p5 : mauvaise notation UML : la moitié de vos CUs sont présentés du point de vue de l'utilisateur, les autres du Serveur. L'abandon devrait être un "extend" et non "include". La détection de différence/erreur devrait utiliser la généralisation et non "extend".
+p6 : mêmes commentaires que p5. L'application de la pénalité est un "include" puisque ça arrive toujours. Le CU de choix de nom n'est pas pertinent dans ce diagramme.
+p7 : les CUs liés à "Sélectionner les paramètre de jeu" devraient être des "extend" et non "include". Le CU "Présenter l'historique des parties joueées" est superflu. La suppression de l'historique devrait être un "extend" et non un "include".
+p8 : le dernier CU devrait relié à un acteur "Joueurs dans une partie" pour indique qui le reçoit.
+p9 : l'Abandon doit être un "extend" et non un "include". Même chose pour la reprise vidéo.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">- Manque de justification de l'utilisation du protocole HTTP. Par défaut n'est pas une justification correcte.
 - Manque de description des fonctionnalités implémentés avec WebSocket. 
-- Le paragraphe ne mentionne pas le protocole HTTP ni le protocole WebSocket.
+- Le paragraphe ne mentionne pas le protocole HTTP ni le protocole WebSocket.I7
 - Section non réussi, à refaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meme remarques que sprint 2. 
+</t>
   </si>
   <si>
     <t>3 Vue des processus /6</t>
@@ -652,6 +741,14 @@
 Page 14 : manque une notation [alt] au début, sinon le "choix" n'est pas vraiment un choix s'il arrive 100% du temps. Manque une notation [alt] ou [opt] pour les différents choix durant la reprise, sinon vous forcez le changement de vitesse avant de mettre la reprise en pause à chaque fois.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mauvaise notation UML : manque la boîte d'activation de vos acteurs.
+p10 : Utilisateur 2 ne fait que "sélectionne mdoe solo ou coopératif" et n'intéragit jamais dans la séquence, ce qui est faux. De plus, dans ce cas, il devrait choisir "coopératif" toujours. "Identifie une différence" n'est toujours pas bon. Manquent des messages de retour vers le joueur après sa tentative. Alt pour mode coopératif incomplet : il faut l'action de l'autre joueur. Mauvaise notation d'abandon : votre diagramme force le joueur d'abandonner après la fin de la partie ?? Mauvaise séquence pour un abandon en coopératif : la partie ne se termine pas pour le 2e joueur.
+p11 : Mauvaise notation pour l'affichage de l'indice : "Rétroaction visuelle pour l'indice demandé" devrait venir après votre boîte [alt].
+p12 : "Sauvegarder" et "Modifie les constantes" devraient être en dehoirs du 1er alt puisque c'est la même action/séquence.Manque une notation alt/opt pour les séquences de supression par la suite : votre séquence force la suppréession de toutes les fiches avant la réinitialisation des meilleurs temps, ce qui est impossible vu qu'il n'y a plus de fiches à réinitialiser. Manque un message de retour vers l'Utilisateur et manque des messages vers la BD pour les modifications des meilleurs temps (imposé dans le projet).
+p13 : manque un message vers tous les autres joueurs en cas de meilleur temps : la séquence ne peut pas se terminer avec Vue de jeu. Manque une notation alt/opt pour "Créer un nouveau jeu" : votre diagramme indique qu'un joueur est forcé de créer un nouveau jeu après chaque partie.
+p14 : manque une notation [alt] au début, sinon le "choix" n'est pas vraiment un choix s'il arrive 100% du temps. </t>
+  </si>
+  <si>
     <t xml:space="preserve">- Requêtes HTTP sans code de retour.
 - Utiliser des interface pour representer le corps des requêtes.
 - Attention: Ne pas mélanger entre un morceau de URL et une string dans le contenu des messages Socket.
@@ -660,6 +757,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Vous avez les mêmes remarques que les sprint 2, sauf les code de retour des requêtes HTTP.
+</t>
+  </si>
+  <si>
     <t>4 Vue logique /6</t>
   </si>
   <si>
@@ -670,6 +771,15 @@
 Difficile de voir les fonctionnalités du Sprint 3 dans votre section. Selon votre présentation, rien ne communique avec une BD externe et ceci vous est imposé pour les meilleurs temps du moins. Difficile de vor les components/services utilisés du côté client pour les nouvelles fonctionnalitées également.</t>
   </si>
   <si>
+    <t xml:space="preserve">p15 : SERVICE est toujours décrit de manière différente que les autres paquetages. "Logique métier" toujours présente. Toujours pas clair quels sont les protocoles de sécurité.
+p16 : diagramme plus lisible, mais beaucoup de components flottants sans liens entre eux. Certains components comme "Home-button" et "Previous-next-button" sont superflus et n'ajoutetnt pas grande chose au diagramme.
+p17 : toujours 2 "gameManager" : donnez le nom au complet pour voir la différence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Vous n'avez pas fait une revue des commentaires donnée dans le sprint 2. Vous perdez donc plus de points pour chaque erreur qui se répète du sprint 2 dans le sprint 3. 
+</t>
+  </si>
+  <si>
     <t>5 Vue de déploiement /2</t>
   </si>
   <si>
@@ -680,12 +790,22 @@
 MongoDB n'est pas un type de communication.</t>
   </si>
   <si>
+    <t>Notation UML invalide.
+Le serveur statique doit contenir le code source (+HTML,CSS,etc) du site web.
+Nest est un cadriciel et n'a aucun rapport avec AWS
+La machine du client est un concept différent du navigateur. La boîte globale devraient être Ordinateur/Client/etc et non "Web Browser"</t>
+  </si>
+  <si>
     <t>Forme /1</t>
   </si>
   <si>
     <t>Section 2 : notation UML "extend" et "include" à revoir. Plusieurs liens "flottants" qui ne sont pas bien liés à des CUs.
 Section 3 : notation UML [alt] et [opt] à revoir.  
 Section 4 : aucune cohérence de notation des noms de vos classes. Ex : page 16 présente des noms avec espace (Home button), sans espace (settings-button), avec des majuscules (Game-card), avec des minuscules (slider).</t>
+  </si>
+  <si>
+    <t>Section 2 : notation UML "extend" et "include" à revoir. 
+Diagrammes sans titres/numéros toujours.</t>
   </si>
   <si>
     <t>- Présence de fautes d'orthographes
@@ -2313,9 +2433,6 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2358,9 +2475,6 @@
     <xf numFmtId="1" fontId="14" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2461,6 +2575,12 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3014,7 +3134,7 @@
   <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3083,7 +3203,7 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0.63800000000000001</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
@@ -3091,7 +3211,7 @@
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.65139999999999998</v>
+        <v>0.6673</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3099,7 +3219,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>13.027999999999999</v>
+        <v>13.346</v>
       </c>
       <c r="H5" s="116">
         <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
@@ -3112,15 +3232,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.76740000000000008</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -3128,11 +3248,11 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.348000000000003</v>
       </c>
       <c r="H6" s="121">
         <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3142,7 +3262,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -3150,7 +3270,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="H7" s="125"/>
     </row>
@@ -3164,8 +3284,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3320,7 +3440,9 @@
         <v>18</v>
       </c>
       <c r="J8" s="239"/>
-      <c r="K8" s="46"/>
+      <c r="K8" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -3353,11 +3475,15 @@
       <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="106" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3367,10 +3493,10 @@
     </row>
     <row r="10" spans="1:17" ht="60.75">
       <c r="A10" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="100">
         <v>0.8</v>
@@ -3379,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="102">
         <v>0.75</v>
@@ -3388,13 +3514,17 @@
         <v>2</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="104"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="104">
+        <v>0.8</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="106" t="s">
+        <v>29</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3404,7 +3534,7 @@
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
       <c r="A11" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="241"/>
       <c r="C11" s="47">
@@ -3427,7 +3557,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3443,24 +3573,30 @@
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
       <c r="A12" s="245" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="245"/>
       <c r="C12" s="238" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="239"/>
-      <c r="E12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="238" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="239"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="238" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="239"/>
-      <c r="K12" s="46"/>
+      <c r="K12" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3468,12 +3604,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" ht="30.75">
+    <row r="13" spans="1:17" ht="60.75">
       <c r="A13" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3482,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F13" s="89">
         <v>0.5</v>
@@ -3492,23 +3628,27 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="83">
         <v>0.5</v>
@@ -3517,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" s="86">
         <v>1</v>
@@ -3527,23 +3667,27 @@
         <v>2</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>24</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>24</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3552,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="86">
         <v>0</v>
@@ -3562,23 +3706,27 @@
         <v>2</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>42</v>
+      </c>
+      <c r="I15" s="76">
+        <v>0</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3587,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F16" s="86">
         <v>1</v>
@@ -3597,23 +3745,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>46</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="60.75">
       <c r="A17" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -3622,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F17" s="86">
         <v>0.5</v>
@@ -3632,20 +3784,24 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>49</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0.25</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
       <c r="A18" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="241"/>
       <c r="C18" s="47">
@@ -3668,7 +3824,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3684,33 +3840,39 @@
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
       <c r="A19" s="277" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B19" s="277"/>
       <c r="C19" s="238" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="239"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="238" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="239"/>
-      <c r="H19" s="46"/>
+      <c r="H19" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="I19" s="238" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="239"/>
-      <c r="K19" s="46"/>
+      <c r="K19" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="60.75">
       <c r="A20" s="23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" s="83">
         <v>0.8</v>
@@ -3719,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F20" s="86">
         <v>0.25</v>
@@ -3728,22 +3890,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="76"/>
+        <v>55</v>
+      </c>
+      <c r="I20" s="76">
+        <v>0.25</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="s">
+        <v>55</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3752,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="86">
         <v>0.8</v>
@@ -3761,19 +3927,23 @@
         <v>3</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="76"/>
+        <v>59</v>
+      </c>
+      <c r="I21" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>59</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A22" s="278" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="260"/>
       <c r="C22" s="57">
@@ -3796,7 +3966,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3807,34 +3977,40 @@
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="213" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="213"/>
+      <c r="A23" s="211" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="211"/>
       <c r="C23" s="238" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="239"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="238" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="239"/>
-      <c r="H23" s="46"/>
+      <c r="H23" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="I23" s="238" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="239"/>
-      <c r="K23" s="46"/>
+      <c r="K23" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3843,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" s="82">
         <v>1</v>
@@ -3852,22 +4028,26 @@
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="73">
+        <v>1</v>
+      </c>
       <c r="J24" s="74">
         <v>1</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>45</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="121.5">
       <c r="A25" s="23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" s="83">
         <v>0.5</v>
@@ -3876,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F25" s="86">
         <v>0.5</v>
@@ -3885,22 +4065,26 @@
         <v>2</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="76"/>
+        <v>66</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0</v>
+      </c>
       <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3909,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -3918,19 +4102,23 @@
         <v>1</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A27" s="259" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="260"/>
       <c r="C27" s="47">
@@ -3953,7 +4141,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -3965,7 +4153,7 @@
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
       <c r="A28" s="277" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B28" s="277"/>
       <c r="C28" s="238" t="s">
@@ -3986,16 +4174,18 @@
         <v>18</v>
       </c>
       <c r="J28" s="239"/>
-      <c r="K28" s="46"/>
+      <c r="K28" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="60.75">
       <c r="A29" s="31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29" s="79">
         <v>0.1</v>
@@ -4004,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F29" s="89">
         <v>1</v>
@@ -4014,23 +4204,27 @@
         <v>2</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="94" t="s">
+        <v>75</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -4047,7 +4241,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -4058,10 +4254,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="83">
         <v>0.7</v>
@@ -4070,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F31" s="86">
         <v>1</v>
@@ -4080,20 +4276,24 @@
         <v>2</v>
       </c>
       <c r="H31" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K31" s="78"/>
+      <c r="K31" s="78" t="s">
+        <v>82</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A32" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="241"/>
       <c r="C32" s="47">
@@ -4116,7 +4316,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -4128,7 +4328,7 @@
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
       <c r="A33" s="245" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B33" s="245"/>
       <c r="C33" s="238" t="s">
@@ -4147,16 +4347,18 @@
         <v>18</v>
       </c>
       <c r="J33" s="66"/>
-      <c r="K33" s="46"/>
+      <c r="K33" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -4165,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F34" s="89">
         <v>1</v>
@@ -4174,7 +4376,9 @@
         <v>2</v>
       </c>
       <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
@@ -4184,10 +4388,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -4196,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F35" s="89">
         <v>1</v>
@@ -4205,7 +4409,9 @@
         <v>2</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="92">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
@@ -4215,10 +4421,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -4234,7 +4440,9 @@
         <v>3</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="92">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
@@ -4244,10 +4452,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -4256,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F37" s="89">
         <v>1</v>
@@ -4265,7 +4473,9 @@
         <v>3</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="92">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
@@ -4273,9 +4483,9 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
+    <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
       <c r="A38" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" s="241"/>
       <c r="C38" s="69">
@@ -4298,19 +4508,21 @@
       <c r="H38" s="52"/>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
         <v>10</v>
       </c>
-      <c r="K38" s="65"/>
+      <c r="K38" s="65" t="s">
+        <v>81</v>
+      </c>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B39" s="45"/>
       <c r="C39" s="238" t="s">
@@ -4318,29 +4530,31 @@
       </c>
       <c r="D39" s="239"/>
       <c r="E39" s="66" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F39" s="238" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="239"/>
       <c r="H39" s="46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I39" s="238" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="239"/>
-      <c r="K39" s="46"/>
+      <c r="K39" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -4349,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" s="86">
         <v>1</v>
@@ -4359,23 +4573,27 @@
         <v>2</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="45.75">
       <c r="A41" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -4384,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F41" s="86">
         <v>0</v>
@@ -4394,23 +4612,27 @@
         <v>2</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="76"/>
+        <v>99</v>
+      </c>
+      <c r="I41" s="76">
+        <v>0</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>100</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="30.75">
+    <row r="42" spans="1:13" ht="76.5">
       <c r="A42" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -4419,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F42" s="86">
         <v>0</v>
@@ -4429,22 +4651,26 @@
         <v>2</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="76"/>
+        <v>103</v>
+      </c>
+      <c r="I42" s="76">
+        <v>0</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="30.75">
       <c r="A43" s="23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -4453,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F43" s="86">
         <v>1</v>
@@ -4463,23 +4689,27 @@
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I43" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>107</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="30.75">
       <c r="A44" s="23" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C44" s="83">
         <v>0.5</v>
@@ -4488,7 +4718,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F44" s="86">
         <v>1</v>
@@ -4498,23 +4728,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I44" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>111</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="198">
+    <row r="45" spans="1:13" ht="259.5">
       <c r="A45" s="23" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4523,7 +4757,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F45" s="86">
         <v>0</v>
@@ -4533,23 +4767,27 @@
         <v>8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="76"/>
+        <v>114</v>
+      </c>
+      <c r="I45" s="76">
+        <v>0</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>115</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="30.75">
+    <row r="46" spans="1:13" ht="121.5">
       <c r="A46" s="23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C46" s="83">
         <v>0.5</v>
@@ -4558,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F46" s="86">
         <v>0.8</v>
@@ -4568,23 +4806,27 @@
         <v>6</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" s="76"/>
+        <v>119</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>120</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4593,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F47" s="86">
         <v>1</v>
@@ -4603,23 +4845,27 @@
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I47" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>123</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="45.75">
+    <row r="48" spans="1:13" ht="60.75">
       <c r="A48" s="13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4628,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F48" s="86">
         <v>0</v>
@@ -4638,20 +4884,24 @@
         <v>4</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>126</v>
+      </c>
+      <c r="I48" s="76">
+        <v>0</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>127</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
       <c r="A49" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" s="241"/>
       <c r="C49" s="71">
@@ -4674,7 +4924,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4690,7 +4940,7 @@
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
       <c r="A50" s="245" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B50" s="245"/>
       <c r="C50" s="238" t="s">
@@ -4698,29 +4948,31 @@
       </c>
       <c r="D50" s="239"/>
       <c r="E50" s="46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F50" s="238" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="239"/>
       <c r="H50" s="46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I50" s="238" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="239"/>
-      <c r="K50" s="46"/>
+      <c r="K50" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4729,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F51" s="82">
         <v>1</v>
@@ -4738,22 +4990,26 @@
         <v>2</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
-      <c r="K51" s="75"/>
+      <c r="K51" s="75" t="s">
+        <v>45</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="60.75">
       <c r="A52" s="23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C52" s="83">
         <v>0</v>
@@ -4762,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F52" s="86">
         <v>1</v>
@@ -4771,22 +5027,26 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I52" s="76">
+        <v>0</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="78" t="s">
+        <v>134</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4795,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F53" s="86">
         <v>1</v>
@@ -4804,22 +5064,26 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
-      <c r="K53" s="78"/>
+      <c r="K53" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="60.75">
+    <row r="54" spans="1:17" ht="106.5">
       <c r="A54" s="23" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C54" s="83">
         <v>0</v>
@@ -4828,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F54" s="86">
         <v>0</v>
@@ -4837,22 +5101,26 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" s="76"/>
+        <v>140</v>
+      </c>
+      <c r="I54" s="76">
+        <v>0.25</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
-      <c r="K54" s="78"/>
+      <c r="K54" s="78" t="s">
+        <v>141</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4861,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4870,19 +5138,23 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
-      <c r="K55" s="78"/>
+      <c r="K55" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A56" s="240" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B56" s="241"/>
       <c r="C56" s="57">
@@ -4905,7 +5177,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4934,7 +5206,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="246" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B58" s="247"/>
       <c r="C58" s="34">
@@ -4955,9 +5227,9 @@
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="212">
+      <c r="I58" s="210">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -4969,7 +5241,7 @@
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A59" s="248" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B59" s="249"/>
       <c r="C59" s="250">
@@ -4986,7 +5258,7 @@
       <c r="H59" s="255"/>
       <c r="I59" s="256">
         <f>I58/J58</f>
-        <v>0</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="J59" s="257"/>
       <c r="K59" s="258"/>
@@ -5048,7 +5320,7 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 F34:F37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 I34:I37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -5065,10 +5337,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5082,7 +5354,7 @@
     <col min="8" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="279" t="s">
         <v>11</v>
       </c>
@@ -5093,7 +5365,7 @@
       <c r="F2" s="279"/>
       <c r="G2" s="279"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
@@ -5102,9 +5374,9 @@
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75">
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5113,8 +5385,8 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:8" ht="23.25">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:7" ht="23.25">
       <c r="A6" s="283" t="s">
         <v>7</v>
       </c>
@@ -5125,21 +5397,21 @@
       <c r="F6" s="284"/>
       <c r="G6" s="285"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5148,9 +5420,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5167,12 +5439,12 @@
       </c>
       <c r="F8" s="134"/>
       <c r="G8" s="135" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -5191,12 +5463,12 @@
         <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5215,12 +5487,12 @@
         <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -5236,15 +5508,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -5260,15 +5532,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30.75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30.75">
       <c r="A13" s="133" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B13" s="134">
         <v>0.8</v>
@@ -5286,13 +5558,13 @@
       <c r="F13" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="218" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="91.5">
+      <c r="G13" s="216" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="91.5">
       <c r="A14" s="136" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B14" s="137">
         <v>0.2</v>
@@ -5308,16 +5580,13 @@
         <v>2.6</v>
       </c>
       <c r="F14" s="137"/>
-      <c r="G14" s="217" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="215" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B15" s="286"/>
       <c r="C15" s="286"/>
@@ -5332,9 +5601,9 @@
       <c r="F15" s="141"/>
       <c r="G15" s="142"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -5344,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -5353,7 +5622,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -5371,7 +5640,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B18" s="152">
         <v>0.2</v>
@@ -5386,7 +5655,7 @@
       </c>
       <c r="F18" s="152"/>
       <c r="G18" s="154" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.25">
@@ -5402,19 +5671,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B20" s="156" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F20" s="156" t="s">
         <v>18</v>
@@ -5425,7 +5694,7 @@
     </row>
     <row r="21" spans="1:7" ht="45.75">
       <c r="A21" s="158" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B21" s="159">
         <v>0.75</v>
@@ -5441,15 +5710,15 @@
         <v>19.5</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="219" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="G21" s="217" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45.75">
       <c r="A22" s="160" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B22" s="161">
         <v>0.75</v>
@@ -5467,16 +5736,16 @@
       <c r="F22" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="237" t="s">
-        <v>152</v>
+      <c r="G22" s="235" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45.75">
       <c r="A23" s="158" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B23" s="159">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C23" s="159">
         <v>0.5</v>
@@ -5486,18 +5755,18 @@
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>11.049999999999999</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="219" t="s">
-        <v>154</v>
+        <v>94</v>
+      </c>
+      <c r="G23" s="217" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="160" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B24" s="161">
         <v>1</v>
@@ -5517,12 +5786,12 @@
       </c>
       <c r="G24" s="162"/>
     </row>
-    <row r="25" spans="1:7" ht="60.75">
+    <row r="25" spans="1:7" ht="45.75">
       <c r="A25" s="158" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B25" s="159">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C25" s="159">
         <v>1</v>
@@ -5532,18 +5801,18 @@
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="219" t="s">
-        <v>157</v>
+        <v>94</v>
+      </c>
+      <c r="G25" s="217" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="160" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B26" s="161">
         <v>1</v>
@@ -5562,32 +5831,32 @@
       <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="214" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="214">
-        <v>1</v>
-      </c>
-      <c r="C27" s="214">
-        <v>1</v>
-      </c>
-      <c r="D27" s="214">
+      <c r="A27" s="212" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="212">
+        <v>1</v>
+      </c>
+      <c r="C27" s="212">
+        <v>1</v>
+      </c>
+      <c r="D27" s="212">
         <v>8</v>
       </c>
       <c r="E27" s="161">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F27" s="214" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="215" t="s">
-        <v>136</v>
+      <c r="F27" s="212" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="213" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="163" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B28" s="164"/>
       <c r="C28" s="164"/>
@@ -5597,14 +5866,14 @@
       </c>
       <c r="E28" s="165">
         <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
-        <v>0.63800000000000001</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="F28" s="165"/>
       <c r="G28" s="166"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="167" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B29" s="168" t="s">
         <v>15</v>
@@ -5614,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="169" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F29" s="169"/>
       <c r="G29" s="170" t="s">
@@ -5623,7 +5892,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="171" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B30" s="172">
         <v>0.2</v>
@@ -5638,12 +5907,12 @@
       </c>
       <c r="F30" s="172"/>
       <c r="G30" s="174" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="175" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B31" s="176">
         <v>0</v>
@@ -5661,7 +5930,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="179" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B32" s="180">
         <v>0</v>
@@ -5690,19 +5959,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="183" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B34" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="184" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D34" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F34" s="184" t="s">
         <v>18</v>
@@ -5711,255 +5980,289 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="30.75">
       <c r="A35" s="186" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B35" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D35" s="187">
         <v>24</v>
       </c>
       <c r="E35" s="187">
         <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
+        <v>18</v>
+      </c>
+      <c r="F35" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="237" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="189" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="190">
-        <v>0</v>
-      </c>
-      <c r="C36" s="190">
-        <v>0</v>
-      </c>
-      <c r="D36" s="190">
+      <c r="A36" s="188" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="189">
+        <v>1</v>
+      </c>
+      <c r="C36" s="189">
+        <v>1</v>
+      </c>
+      <c r="D36" s="189">
         <v>6</v>
       </c>
-      <c r="E36" s="190">
+      <c r="E36" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="190"/>
-      <c r="G36" s="191"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F36" s="189" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30.75">
       <c r="A37" s="186" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B37" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="187">
         <v>6</v>
       </c>
       <c r="E37" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="187"/>
-      <c r="G37" s="188"/>
+        <v>6</v>
+      </c>
+      <c r="F37" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="237" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="190">
-        <v>0</v>
-      </c>
-      <c r="C38" s="190">
-        <v>0</v>
-      </c>
-      <c r="D38" s="190">
+      <c r="A38" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="189">
+        <v>1</v>
+      </c>
+      <c r="C38" s="189">
+        <v>1</v>
+      </c>
+      <c r="D38" s="189">
         <v>12</v>
       </c>
-      <c r="E38" s="190">
+      <c r="E38" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="190"/>
-      <c r="G38" s="191"/>
+        <v>12</v>
+      </c>
+      <c r="F38" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="236" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="186" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B39" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="187">
         <v>12</v>
       </c>
       <c r="E39" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="187"/>
-      <c r="G39" s="188"/>
+        <v>12</v>
+      </c>
+      <c r="F39" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="237" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="189" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="190">
-        <v>0</v>
-      </c>
-      <c r="C40" s="190">
-        <v>0</v>
-      </c>
-      <c r="D40" s="190">
+      <c r="A40" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="189">
+        <v>1</v>
+      </c>
+      <c r="C40" s="189">
+        <v>1</v>
+      </c>
+      <c r="D40" s="189">
         <v>14</v>
       </c>
-      <c r="E40" s="190">
+      <c r="E40" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="190"/>
-      <c r="G40" s="191"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="F40" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="236" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30.75">
       <c r="A41" s="186" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B41" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="187">
         <v>6</v>
       </c>
       <c r="E41" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="187"/>
-      <c r="G41" s="188"/>
+        <v>6</v>
+      </c>
+      <c r="F41" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="237" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="216" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="216">
-        <v>0</v>
-      </c>
-      <c r="C42" s="216">
-        <v>0</v>
-      </c>
-      <c r="D42" s="216">
+      <c r="A42" s="214" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="214">
+        <v>1</v>
+      </c>
+      <c r="C42" s="214">
+        <v>1</v>
+      </c>
+      <c r="D42" s="214">
         <v>20</v>
       </c>
       <c r="E42" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="214" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="192" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="193"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193">
+      <c r="A43" s="191" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="192">
         <f>SUM(D35:D42)</f>
         <v>100</v>
       </c>
-      <c r="E43" s="194">
+      <c r="E43" s="193">
         <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
+        <v>0.92</v>
+      </c>
+      <c r="F43" s="193"/>
+      <c r="G43" s="194"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="197" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="197"/>
+      <c r="G44" s="198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="200">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="200"/>
+      <c r="D45" s="201">
+        <v>-10</v>
+      </c>
+      <c r="E45" s="200">
+        <f>B45*D45</f>
+        <v>-2</v>
+      </c>
+      <c r="F45" s="200"/>
+      <c r="G45" s="205" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="202" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="203">
         <v>0</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="195"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="196" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="197" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="198" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="200" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="201">
-        <v>0</v>
-      </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="202">
-        <v>-10</v>
-      </c>
-      <c r="E45" s="201">
-        <f>B45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="201"/>
-      <c r="G45" s="203"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="204" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="205">
-        <v>0</v>
-      </c>
-      <c r="C46" s="205"/>
-      <c r="D46" s="206">
+      <c r="C46" s="203"/>
+      <c r="D46" s="204">
         <v>-15</v>
       </c>
-      <c r="E46" s="205">
+      <c r="E46" s="203">
         <f>B46*D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="205"/>
-      <c r="G46" s="207"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="205"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="208" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="209">
+      <c r="A47" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="207">
         <v>0</v>
       </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="210">
+      <c r="C47" s="207"/>
+      <c r="D47" s="208">
         <v>-5</v>
       </c>
-      <c r="E47" s="209">
+      <c r="E47" s="207">
         <f>B47*D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="209"/>
-      <c r="G47" s="211"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5991,260 +6294,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBA27BD-72DD-4291-BCAE-11CEF7A88931}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="290" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B1" s="290"/>
       <c r="E1" s="290" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F1" s="290"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220" t="s">
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="218" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="221" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="222"/>
-      <c r="E3" s="221" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="222"/>
+      <c r="A3" s="219" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="220"/>
+      <c r="E3" s="219" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="220"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="223" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="224">
-        <v>1</v>
-      </c>
-      <c r="C4" s="224"/>
-      <c r="E4" s="223" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="224">
-        <v>1</v>
-      </c>
-      <c r="G4" s="224"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="221"/>
-      <c r="B5" s="225" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="221" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="225" t="s">
-        <v>176</v>
+      <c r="A4" s="221" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="222">
+        <v>1</v>
+      </c>
+      <c r="C4" s="222">
+        <v>1</v>
+      </c>
+      <c r="E4" s="221" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="222">
+        <v>1</v>
+      </c>
+      <c r="G4" s="222">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="91.5">
+      <c r="A5" s="219"/>
+      <c r="B5" s="223" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="219" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="223" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="223" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="224">
+      <c r="A6" s="221" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="222">
         <v>4</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="E6" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="224">
+      <c r="C6" s="222">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="221" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="222">
         <v>4</v>
       </c>
-      <c r="G6" s="224"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="221"/>
-      <c r="B7" s="222" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222" t="s">
-        <v>181</v>
+      <c r="G6" s="222">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="275.25">
+      <c r="A7" s="219"/>
+      <c r="B7" s="220" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="220" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="219"/>
+      <c r="F7" s="220" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="233" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="223" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="224">
+      <c r="A8" s="221" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="222">
         <v>4.5</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="E8" s="223" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="224">
+      <c r="C8" s="222">
+        <v>4.75</v>
+      </c>
+      <c r="E8" s="221" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="222">
         <v>7</v>
       </c>
-      <c r="G8" s="224"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="221"/>
-      <c r="B9" s="226" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="226" t="s">
-        <v>185</v>
+      <c r="G8" s="222">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6">
+      <c r="A9" s="219"/>
+      <c r="B9" s="224" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="220" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="225"/>
+      <c r="F9" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="233" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="223" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="224">
+      <c r="A10" s="221" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="222">
         <v>4.5</v>
       </c>
-      <c r="C10" s="224"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="221"/>
-      <c r="B11" s="228" t="s">
-        <v>187</v>
+      <c r="C10" s="222">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="243">
+      <c r="A11" s="219"/>
+      <c r="B11" s="226" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="220" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="233" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="223" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="224">
-        <v>1</v>
-      </c>
-      <c r="C12" s="224"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="227"/>
-      <c r="B13" s="235" t="s">
-        <v>189</v>
+      <c r="A12" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="222">
+        <v>1</v>
+      </c>
+      <c r="C12" s="222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="113.25">
+      <c r="A13" s="225"/>
+      <c r="B13" s="233" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="229" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="224">
+      <c r="A14" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="222">
         <v>0.75</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="E14" s="229" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="230">
+      <c r="C14" s="222">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="228">
         <v>0.75</v>
       </c>
-      <c r="G14" s="224"/>
+      <c r="G14" s="222">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="72">
-      <c r="A15" s="221"/>
-      <c r="B15" s="236" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="226" t="s">
-        <v>192</v>
+      <c r="A15" s="219"/>
+      <c r="B15" s="234" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="220" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="219"/>
+      <c r="F15" s="224" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="231" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="232">
+      <c r="A16" s="229" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="230">
         <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
         <v>15</v>
       </c>
-      <c r="C16" s="232">
+      <c r="C16" s="230">
         <f>SUM(C4,C6,C8,C10,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="231" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="232">
+        <v>16.75</v>
+      </c>
+      <c r="E16" s="229" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="230">
         <f>SUM(F4,F6,F8)</f>
         <v>12</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="230">
         <f>SUM(G4,G6,G8)</f>
-        <v>0</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="231" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="232">
+      <c r="A17" s="229" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="230">
         <f t="shared" ref="B17" si="1">B14</f>
         <v>0.75</v>
       </c>
-      <c r="C17" s="232">
+      <c r="C17" s="230">
         <f>C14</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="231" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="232">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="229" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="230">
         <f>F14</f>
         <v>0.75</v>
       </c>
-      <c r="G17" s="232">
+      <c r="G17" s="230">
         <f>G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="233" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="234">
+      <c r="A18" s="231" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="232">
         <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
         <v>0.75</v>
       </c>
-      <c r="C18" s="234">
+      <c r="C18" s="232">
         <f>C16/20*0.9+C17*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="233" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="234">
+        <v>0.83374999999999999</v>
+      </c>
+      <c r="E18" s="231" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="232">
         <f>F16/20*0.9+F17*0.1</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="G18" s="234">
+      <c r="G18" s="232">
         <f>G16/20*0.9+G17*0.1</f>
-        <v>0</v>
+        <v>0.60624999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6257,21 +6609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6403,14 +6740,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>